--- a/CoreExcelFiles/P2MasterTemplate5.29.23.xlsx
+++ b/CoreExcelFiles/P2MasterTemplate5.29.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Automated-Stock-Selector\CoreExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086CDBF-10DF-4045-8DF4-91A7E5CAEB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91137A7D-4FF8-495D-BBD7-5209D444B1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Industrials" sheetId="1" r:id="rId1"/>
@@ -296,22 +296,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GS2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="FT1" workbookViewId="0">
+      <selection activeCell="GI16" sqref="GI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,233 +647,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1482,6 +1482,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -1489,12 +1495,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1555,233 +1555,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -2390,6 +2390,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -2397,12 +2403,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2463,233 +2463,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -3298,6 +3298,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -3305,12 +3311,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3320,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:GS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GH1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3371,233 +3371,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -4206,19 +4206,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="FE1:FV1"/>
-    <mergeCell ref="FW1:GN1"/>
-    <mergeCell ref="BS1:CJ1"/>
-    <mergeCell ref="CK1:DB1"/>
-    <mergeCell ref="DC1:DT1"/>
-    <mergeCell ref="DU1:EL1"/>
-    <mergeCell ref="EM1:FD1"/>
     <mergeCell ref="GO1:GS1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:P1"/>
     <mergeCell ref="Q1:AH1"/>
     <mergeCell ref="AI1:AZ1"/>
     <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="FW1:GN1"/>
+    <mergeCell ref="EM1:FD1"/>
+    <mergeCell ref="FE1:FV1"/>
+    <mergeCell ref="BS1:CJ1"/>
+    <mergeCell ref="CK1:DB1"/>
+    <mergeCell ref="DC1:DT1"/>
+    <mergeCell ref="DU1:EL1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4229,7 +4229,7 @@
   <dimension ref="A1:GS2"/>
   <sheetViews>
     <sheetView topLeftCell="GC1" workbookViewId="0">
-      <selection activeCell="AQ11" sqref="AQ11"/>
+      <selection activeCell="GC1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4279,233 +4279,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -5232,233 +5232,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -6067,6 +6067,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -6074,12 +6080,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6140,233 +6140,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -6975,6 +6975,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -6982,12 +6988,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7048,233 +7048,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -7883,6 +7883,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -7890,12 +7896,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7956,233 +7956,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -8791,6 +8791,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -8798,12 +8804,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8864,233 +8864,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -9699,6 +9699,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -9706,12 +9712,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9772,233 +9772,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -10607,6 +10607,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -10614,12 +10620,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10680,233 +10680,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -11515,6 +11515,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -11522,12 +11528,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11588,233 +11588,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:201" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="9" t="s">
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="9" t="s">
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="9" t="s">
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="9" t="s">
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
     </row>
     <row r="2" spans="1:201" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -12423,6 +12423,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -12430,12 +12436,6 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
